--- a/Modelizacion/Clustering_oro_acumulado_por_jugador.xlsx
+++ b/Modelizacion/Clustering_oro_acumulado_por_jugador.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="446">
   <si>
     <t xml:space="preserve">summonerName</t>
   </si>
@@ -29,7 +29,10 @@
     <t xml:space="preserve">quarter_4</t>
   </si>
   <si>
-    <t xml:space="preserve">clusters</t>
+    <t xml:space="preserve">clusters_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clusters_5</t>
   </si>
   <si>
     <t xml:space="preserve">100 Busio</t>
@@ -38,12 +41,18 @@
     <t xml:space="preserve">B</t>
   </si>
   <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
     <t xml:space="preserve">100 yukino</t>
   </si>
   <si>
     <t xml:space="preserve">A</t>
   </si>
   <si>
+    <t xml:space="preserve">D</t>
+  </si>
+  <si>
     <t xml:space="preserve">100T Bjergsen</t>
   </si>
   <si>
@@ -54,6 +63,9 @@
   </si>
   <si>
     <t xml:space="preserve">15th July</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E</t>
   </si>
   <si>
     <t xml:space="preserve">5fire</t>
@@ -1688,10 +1700,13 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="n">
         <v>171263</v>
@@ -1706,12 +1721,15 @@
         <v>188318</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
         <v>260436</v>
@@ -1726,12 +1744,15 @@
         <v>277414</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B4" t="n">
         <v>220862</v>
@@ -1746,12 +1767,15 @@
         <v>239453</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B5" t="n">
         <v>194385</v>
@@ -1766,12 +1790,15 @@
         <v>234876</v>
       </c>
       <c r="F5" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B6" t="n">
         <v>197185</v>
@@ -1786,12 +1813,15 @@
         <v>211667</v>
       </c>
       <c r="F6" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B7" t="n">
         <v>137153</v>
@@ -1806,12 +1836,15 @@
         <v>154864</v>
       </c>
       <c r="F7" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B8" t="n">
         <v>224077</v>
@@ -1826,12 +1859,15 @@
         <v>246460</v>
       </c>
       <c r="F8" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B9" t="n">
         <v>153321</v>
@@ -1846,12 +1882,15 @@
         <v>166137</v>
       </c>
       <c r="F9" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B10" t="n">
         <v>259837</v>
@@ -1866,12 +1905,15 @@
         <v>274364</v>
       </c>
       <c r="F10" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n">
         <v>252973</v>
@@ -1886,12 +1928,15 @@
         <v>276077</v>
       </c>
       <c r="F11" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n">
         <v>93432</v>
@@ -1906,12 +1951,15 @@
         <v>116432</v>
       </c>
       <c r="F12" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n">
         <v>242156</v>
@@ -1926,12 +1974,15 @@
         <v>216309</v>
       </c>
       <c r="F13" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G13" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B14" t="n">
         <v>220550</v>
@@ -1946,12 +1997,15 @@
         <v>190371</v>
       </c>
       <c r="F14" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G14" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B15" t="n">
         <v>265924</v>
@@ -1966,12 +2020,15 @@
         <v>322666</v>
       </c>
       <c r="F15" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G15" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B16" t="n">
         <v>174329</v>
@@ -1986,12 +2043,15 @@
         <v>189276</v>
       </c>
       <c r="F16" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G16" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B17" t="n">
         <v>176098</v>
@@ -2006,12 +2066,15 @@
         <v>163430</v>
       </c>
       <c r="F17" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G17" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B18" t="n">
         <v>265453</v>
@@ -2026,12 +2089,15 @@
         <v>276062</v>
       </c>
       <c r="F18" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G18" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B19" t="n">
         <v>174802</v>
@@ -2046,12 +2112,15 @@
         <v>198139</v>
       </c>
       <c r="F19" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G19" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B20" t="n">
         <v>257636</v>
@@ -2066,12 +2135,15 @@
         <v>250595</v>
       </c>
       <c r="F20" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G20" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B21" t="n">
         <v>207743</v>
@@ -2086,12 +2158,15 @@
         <v>240387</v>
       </c>
       <c r="F21" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G21" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B22" t="n">
         <v>170441</v>
@@ -2106,12 +2181,15 @@
         <v>176682</v>
       </c>
       <c r="F22" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G22" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B23" t="n">
         <v>226393</v>
@@ -2126,12 +2204,15 @@
         <v>267017</v>
       </c>
       <c r="F23" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G23" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B24" t="n">
         <v>195805</v>
@@ -2146,12 +2227,15 @@
         <v>280501</v>
       </c>
       <c r="F24" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G24" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B25" t="n">
         <v>218879</v>
@@ -2166,12 +2250,15 @@
         <v>236626</v>
       </c>
       <c r="F25" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G25" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B26" t="n">
         <v>208747</v>
@@ -2186,12 +2273,15 @@
         <v>221318</v>
       </c>
       <c r="F26" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G26" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B27" t="n">
         <v>283974</v>
@@ -2206,12 +2296,15 @@
         <v>278692</v>
       </c>
       <c r="F27" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G27" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B28" t="n">
         <v>299352</v>
@@ -2226,12 +2319,15 @@
         <v>309533</v>
       </c>
       <c r="F28" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G28" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B29" t="n">
         <v>238043</v>
@@ -2246,12 +2342,15 @@
         <v>247849</v>
       </c>
       <c r="F29" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G29" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B30" t="n">
         <v>167677</v>
@@ -2266,12 +2365,15 @@
         <v>161087</v>
       </c>
       <c r="F30" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G30" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B31" t="n">
         <v>151342</v>
@@ -2286,12 +2388,15 @@
         <v>150535</v>
       </c>
       <c r="F31" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G31" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B32" t="n">
         <v>194224</v>
@@ -2306,12 +2411,15 @@
         <v>200856</v>
       </c>
       <c r="F32" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G32" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B33" t="n">
         <v>258390</v>
@@ -2326,12 +2434,15 @@
         <v>220031</v>
       </c>
       <c r="F33" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G33" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B34" t="n">
         <v>231561</v>
@@ -2346,12 +2457,15 @@
         <v>235105</v>
       </c>
       <c r="F34" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G34" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B35" t="n">
         <v>251771</v>
@@ -2366,12 +2480,15 @@
         <v>303885</v>
       </c>
       <c r="F35" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G35" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B36" t="n">
         <v>148409</v>
@@ -2386,12 +2503,15 @@
         <v>136970</v>
       </c>
       <c r="F36" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G36" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B37" t="n">
         <v>247346</v>
@@ -2406,12 +2526,15 @@
         <v>240043</v>
       </c>
       <c r="F37" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G37" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B38" t="n">
         <v>239510</v>
@@ -2426,12 +2549,15 @@
         <v>225409</v>
       </c>
       <c r="F38" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G38" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B39" t="n">
         <v>271511</v>
@@ -2446,12 +2572,15 @@
         <v>277905</v>
       </c>
       <c r="F39" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G39" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B40" t="n">
         <v>194147</v>
@@ -2466,12 +2595,15 @@
         <v>198452</v>
       </c>
       <c r="F40" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G40" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B41" t="n">
         <v>164074</v>
@@ -2486,12 +2618,15 @@
         <v>213826</v>
       </c>
       <c r="F41" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G41" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B42" t="n">
         <v>156129</v>
@@ -2506,12 +2641,15 @@
         <v>174439</v>
       </c>
       <c r="F42" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G42" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B43" t="n">
         <v>179674</v>
@@ -2526,12 +2664,15 @@
         <v>211541</v>
       </c>
       <c r="F43" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G43" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B44" t="n">
         <v>299165</v>
@@ -2546,12 +2687,15 @@
         <v>246731</v>
       </c>
       <c r="F44" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G44" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B45" t="n">
         <v>194220</v>
@@ -2566,12 +2710,15 @@
         <v>176205</v>
       </c>
       <c r="F45" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G45" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B46" t="n">
         <v>115020</v>
@@ -2586,12 +2733,15 @@
         <v>127765</v>
       </c>
       <c r="F46" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G46" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B47" t="n">
         <v>214497</v>
@@ -2606,12 +2756,15 @@
         <v>214273</v>
       </c>
       <c r="F47" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G47" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B48" t="n">
         <v>203889</v>
@@ -2626,12 +2779,15 @@
         <v>223176</v>
       </c>
       <c r="F48" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G48" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B49" t="n">
         <v>160125</v>
@@ -2646,12 +2802,15 @@
         <v>165110</v>
       </c>
       <c r="F49" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G49" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B50" t="n">
         <v>243749</v>
@@ -2666,12 +2825,15 @@
         <v>282005</v>
       </c>
       <c r="F50" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G50" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B51" t="n">
         <v>183787</v>
@@ -2686,12 +2848,15 @@
         <v>178958</v>
       </c>
       <c r="F51" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G51" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B52" t="n">
         <v>204257</v>
@@ -2706,12 +2871,15 @@
         <v>255818</v>
       </c>
       <c r="F52" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G52" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B53" t="n">
         <v>193962</v>
@@ -2726,12 +2894,15 @@
         <v>210819</v>
       </c>
       <c r="F53" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G53" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B54" t="n">
         <v>210367</v>
@@ -2746,12 +2917,15 @@
         <v>203520</v>
       </c>
       <c r="F54" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G54" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B55" t="n">
         <v>196476</v>
@@ -2766,12 +2940,15 @@
         <v>243955</v>
       </c>
       <c r="F55" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G55" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B56" t="n">
         <v>242403</v>
@@ -2786,12 +2963,15 @@
         <v>238701</v>
       </c>
       <c r="F56" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G56" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B57" t="n">
         <v>283769</v>
@@ -2806,12 +2986,15 @@
         <v>304279</v>
       </c>
       <c r="F57" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G57" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B58" t="n">
         <v>116576</v>
@@ -2826,12 +3009,15 @@
         <v>141908</v>
       </c>
       <c r="F58" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G58" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B59" t="n">
         <v>146297</v>
@@ -2846,12 +3032,15 @@
         <v>155949</v>
       </c>
       <c r="F59" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G59" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B60" t="n">
         <v>224461</v>
@@ -2866,12 +3055,15 @@
         <v>215308</v>
       </c>
       <c r="F60" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G60" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B61" t="n">
         <v>163504</v>
@@ -2886,12 +3078,15 @@
         <v>197034</v>
       </c>
       <c r="F61" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G61" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B62" t="n">
         <v>211271</v>
@@ -2906,12 +3101,15 @@
         <v>254563</v>
       </c>
       <c r="F62" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G62" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B63" t="n">
         <v>259669</v>
@@ -2926,12 +3124,15 @@
         <v>304469</v>
       </c>
       <c r="F63" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G63" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B64" t="n">
         <v>254566</v>
@@ -2946,12 +3147,15 @@
         <v>263493</v>
       </c>
       <c r="F64" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G64" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B65" t="n">
         <v>232927</v>
@@ -2966,12 +3170,15 @@
         <v>253337</v>
       </c>
       <c r="F65" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G65" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B66" t="n">
         <v>150519</v>
@@ -2986,12 +3193,15 @@
         <v>153525</v>
       </c>
       <c r="F66" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G66" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B67" t="n">
         <v>266187</v>
@@ -3006,12 +3216,15 @@
         <v>297178</v>
       </c>
       <c r="F67" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G67" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B68" t="n">
         <v>276428</v>
@@ -3026,12 +3239,15 @@
         <v>243906</v>
       </c>
       <c r="F68" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G68" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B69" t="n">
         <v>194249</v>
@@ -3046,12 +3262,15 @@
         <v>171631</v>
       </c>
       <c r="F69" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G69" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B70" t="n">
         <v>189438</v>
@@ -3066,12 +3285,15 @@
         <v>229126</v>
       </c>
       <c r="F70" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G70" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B71" t="n">
         <v>230337</v>
@@ -3086,12 +3308,15 @@
         <v>265890</v>
       </c>
       <c r="F71" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G71" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B72" t="n">
         <v>188288</v>
@@ -3106,12 +3331,15 @@
         <v>203157</v>
       </c>
       <c r="F72" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G72" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B73" t="n">
         <v>260553</v>
@@ -3126,12 +3354,15 @@
         <v>265184</v>
       </c>
       <c r="F73" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G73" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B74" t="n">
         <v>267850</v>
@@ -3146,12 +3377,15 @@
         <v>215807</v>
       </c>
       <c r="F74" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G74" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B75" t="n">
         <v>176447</v>
@@ -3166,12 +3400,15 @@
         <v>240865</v>
       </c>
       <c r="F75" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G75" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B76" t="n">
         <v>241690</v>
@@ -3186,12 +3423,15 @@
         <v>198260</v>
       </c>
       <c r="F76" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G76" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B77" t="n">
         <v>214941</v>
@@ -3206,12 +3446,15 @@
         <v>180128</v>
       </c>
       <c r="F77" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G77" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B78" t="n">
         <v>142890</v>
@@ -3226,12 +3469,15 @@
         <v>130825</v>
       </c>
       <c r="F78" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G78" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B79" t="n">
         <v>187108</v>
@@ -3246,12 +3492,15 @@
         <v>180708</v>
       </c>
       <c r="F79" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G79" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B80" t="n">
         <v>239800</v>
@@ -3266,12 +3515,15 @@
         <v>256052</v>
       </c>
       <c r="F80" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G80" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B81" t="n">
         <v>165767</v>
@@ -3286,12 +3538,15 @@
         <v>165555</v>
       </c>
       <c r="F81" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G81" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B82" t="n">
         <v>100073</v>
@@ -3306,12 +3561,15 @@
         <v>107991</v>
       </c>
       <c r="F82" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G82" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B83" t="n">
         <v>192644</v>
@@ -3326,12 +3584,15 @@
         <v>211675</v>
       </c>
       <c r="F83" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G83" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B84" t="n">
         <v>211674</v>
@@ -3346,12 +3607,15 @@
         <v>175713</v>
       </c>
       <c r="F84" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G84" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B85" t="n">
         <v>264209</v>
@@ -3366,12 +3630,15 @@
         <v>282269</v>
       </c>
       <c r="F85" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G85" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B86" t="n">
         <v>237673</v>
@@ -3386,12 +3653,15 @@
         <v>214278</v>
       </c>
       <c r="F86" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G86" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B87" t="n">
         <v>252364</v>
@@ -3406,12 +3676,15 @@
         <v>264408</v>
       </c>
       <c r="F87" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G87" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B88" t="n">
         <v>247075</v>
@@ -3426,12 +3699,15 @@
         <v>278673</v>
       </c>
       <c r="F88" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G88" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B89" t="n">
         <v>170025</v>
@@ -3446,12 +3722,15 @@
         <v>193528</v>
       </c>
       <c r="F89" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G89" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B90" t="n">
         <v>223216</v>
@@ -3466,12 +3745,15 @@
         <v>234695</v>
       </c>
       <c r="F90" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G90" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B91" t="n">
         <v>154079</v>
@@ -3486,12 +3768,15 @@
         <v>201679</v>
       </c>
       <c r="F91" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G91" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B92" t="n">
         <v>301233</v>
@@ -3506,12 +3791,15 @@
         <v>315839</v>
       </c>
       <c r="F92" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G92" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B93" t="n">
         <v>288574</v>
@@ -3526,12 +3814,15 @@
         <v>250735</v>
       </c>
       <c r="F93" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G93" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B94" t="n">
         <v>156066</v>
@@ -3546,12 +3837,15 @@
         <v>151373</v>
       </c>
       <c r="F94" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G94" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B95" t="n">
         <v>255664</v>
@@ -3566,12 +3860,15 @@
         <v>248953</v>
       </c>
       <c r="F95" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G95" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B96" t="n">
         <v>171270</v>
@@ -3586,12 +3883,15 @@
         <v>148541</v>
       </c>
       <c r="F96" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G96" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B97" t="n">
         <v>135676</v>
@@ -3606,12 +3906,15 @@
         <v>164989</v>
       </c>
       <c r="F97" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G97" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B98" t="n">
         <v>146813</v>
@@ -3626,12 +3929,15 @@
         <v>159300</v>
       </c>
       <c r="F98" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G98" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B99" t="n">
         <v>188028</v>
@@ -3646,12 +3952,15 @@
         <v>235044</v>
       </c>
       <c r="F99" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G99" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B100" t="n">
         <v>213210</v>
@@ -3666,12 +3975,15 @@
         <v>229687</v>
       </c>
       <c r="F100" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G100" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B101" t="n">
         <v>216760</v>
@@ -3686,12 +3998,15 @@
         <v>236245</v>
       </c>
       <c r="F101" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G101" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B102" t="n">
         <v>237360</v>
@@ -3706,12 +4021,15 @@
         <v>242087</v>
       </c>
       <c r="F102" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G102" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B103" t="n">
         <v>207593</v>
@@ -3726,12 +4044,15 @@
         <v>211763</v>
       </c>
       <c r="F103" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G103" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B104" t="n">
         <v>157370</v>
@@ -3746,12 +4067,15 @@
         <v>154463</v>
       </c>
       <c r="F104" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G104" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B105" t="n">
         <v>265629</v>
@@ -3766,12 +4090,15 @@
         <v>253732</v>
       </c>
       <c r="F105" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G105" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B106" t="n">
         <v>212601</v>
@@ -3786,12 +4113,15 @@
         <v>257953</v>
       </c>
       <c r="F106" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G106" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B107" t="n">
         <v>179383</v>
@@ -3806,12 +4136,15 @@
         <v>203380</v>
       </c>
       <c r="F107" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G107" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B108" t="n">
         <v>215451</v>
@@ -3826,12 +4159,15 @@
         <v>222722</v>
       </c>
       <c r="F108" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G108" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B109" t="n">
         <v>143945</v>
@@ -3846,12 +4182,15 @@
         <v>159842</v>
       </c>
       <c r="F109" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G109" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B110" t="n">
         <v>152172</v>
@@ -3866,12 +4205,15 @@
         <v>189051</v>
       </c>
       <c r="F110" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G110" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B111" t="n">
         <v>159119</v>
@@ -3886,12 +4228,15 @@
         <v>181434</v>
       </c>
       <c r="F111" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G111" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B112" t="n">
         <v>282646</v>
@@ -3906,12 +4251,15 @@
         <v>227254</v>
       </c>
       <c r="F112" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G112" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B113" t="n">
         <v>292776</v>
@@ -3926,12 +4274,15 @@
         <v>303451</v>
       </c>
       <c r="F113" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G113" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B114" t="n">
         <v>101848</v>
@@ -3946,12 +4297,15 @@
         <v>116957</v>
       </c>
       <c r="F114" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G114" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B115" t="n">
         <v>180734</v>
@@ -3966,12 +4320,15 @@
         <v>209038</v>
       </c>
       <c r="F115" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G115" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B116" t="n">
         <v>226935</v>
@@ -3986,12 +4343,15 @@
         <v>233755</v>
       </c>
       <c r="F116" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G116" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B117" t="n">
         <v>128012</v>
@@ -4006,12 +4366,15 @@
         <v>137119</v>
       </c>
       <c r="F117" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G117" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B118" t="n">
         <v>215742</v>
@@ -4026,12 +4389,15 @@
         <v>254856</v>
       </c>
       <c r="F118" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G118" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B119" t="n">
         <v>171254</v>
@@ -4046,12 +4412,15 @@
         <v>153676</v>
       </c>
       <c r="F119" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G119" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B120" t="n">
         <v>173324</v>
@@ -4066,12 +4435,15 @@
         <v>155239</v>
       </c>
       <c r="F120" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G120" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B121" t="n">
         <v>206097</v>
@@ -4086,12 +4458,15 @@
         <v>214672</v>
       </c>
       <c r="F121" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G121" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B122" t="n">
         <v>223272</v>
@@ -4106,12 +4481,15 @@
         <v>258968</v>
       </c>
       <c r="F122" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G122" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B123" t="n">
         <v>200316</v>
@@ -4126,12 +4504,15 @@
         <v>187506</v>
       </c>
       <c r="F123" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G123" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B124" t="n">
         <v>221417</v>
@@ -4146,12 +4527,15 @@
         <v>265112</v>
       </c>
       <c r="F124" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G124" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B125" t="n">
         <v>121899</v>
@@ -4166,12 +4550,15 @@
         <v>156474</v>
       </c>
       <c r="F125" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G125" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B126" t="n">
         <v>251603</v>
@@ -4186,12 +4573,15 @@
         <v>243117</v>
       </c>
       <c r="F126" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G126" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B127" t="n">
         <v>166118</v>
@@ -4206,12 +4596,15 @@
         <v>146181</v>
       </c>
       <c r="F127" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G127" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B128" t="n">
         <v>208981</v>
@@ -4226,12 +4619,15 @@
         <v>275913</v>
       </c>
       <c r="F128" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G128" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B129" t="n">
         <v>128468</v>
@@ -4246,12 +4642,15 @@
         <v>159009</v>
       </c>
       <c r="F129" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G129" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B130" t="n">
         <v>194936</v>
@@ -4266,12 +4665,15 @@
         <v>233244</v>
       </c>
       <c r="F130" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G130" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B131" t="n">
         <v>134073</v>
@@ -4286,12 +4688,15 @@
         <v>183515</v>
       </c>
       <c r="F131" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G131" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B132" t="n">
         <v>263911</v>
@@ -4306,12 +4711,15 @@
         <v>284025</v>
       </c>
       <c r="F132" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G132" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B133" t="n">
         <v>234850</v>
@@ -4326,12 +4734,15 @@
         <v>261955</v>
       </c>
       <c r="F133" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G133" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B134" t="n">
         <v>263375</v>
@@ -4346,12 +4757,15 @@
         <v>240526</v>
       </c>
       <c r="F134" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G134" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B135" t="n">
         <v>316118</v>
@@ -4366,12 +4780,15 @@
         <v>258372</v>
       </c>
       <c r="F135" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G135" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B136" t="n">
         <v>176283</v>
@@ -4386,12 +4803,15 @@
         <v>198800</v>
       </c>
       <c r="F136" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G136" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B137" t="n">
         <v>184283</v>
@@ -4406,12 +4826,15 @@
         <v>185562</v>
       </c>
       <c r="F137" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G137" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B138" t="n">
         <v>191661</v>
@@ -4426,12 +4849,15 @@
         <v>183702</v>
       </c>
       <c r="F138" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G138" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B139" t="n">
         <v>94879</v>
@@ -4446,12 +4872,15 @@
         <v>100758</v>
       </c>
       <c r="F139" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G139" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B140" t="n">
         <v>158740</v>
@@ -4466,12 +4895,15 @@
         <v>176535</v>
       </c>
       <c r="F140" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G140" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B141" t="n">
         <v>189451</v>
@@ -4486,12 +4918,15 @@
         <v>166745</v>
       </c>
       <c r="F141" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G141" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B142" t="n">
         <v>176306</v>
@@ -4506,12 +4941,15 @@
         <v>221950</v>
       </c>
       <c r="F142" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G142" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B143" t="n">
         <v>241856</v>
@@ -4526,12 +4964,15 @@
         <v>298005</v>
       </c>
       <c r="F143" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G143" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B144" t="n">
         <v>263970</v>
@@ -4546,12 +4987,15 @@
         <v>289484</v>
       </c>
       <c r="F144" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G144" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B145" t="n">
         <v>302862</v>
@@ -4566,12 +5010,15 @@
         <v>306707</v>
       </c>
       <c r="F145" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G145" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B146" t="n">
         <v>192555</v>
@@ -4586,12 +5033,15 @@
         <v>208054</v>
       </c>
       <c r="F146" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G146" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B147" t="n">
         <v>145132</v>
@@ -4606,12 +5056,15 @@
         <v>173650</v>
       </c>
       <c r="F147" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G147" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B148" t="n">
         <v>117499</v>
@@ -4626,12 +5079,15 @@
         <v>125585</v>
       </c>
       <c r="F148" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G148" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B149" t="n">
         <v>229326</v>
@@ -4646,12 +5102,15 @@
         <v>216144</v>
       </c>
       <c r="F149" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G149" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B150" t="n">
         <v>247101</v>
@@ -4666,12 +5125,15 @@
         <v>240552</v>
       </c>
       <c r="F150" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G150" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B151" t="n">
         <v>257365</v>
@@ -4686,12 +5148,15 @@
         <v>216176</v>
       </c>
       <c r="F151" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G151" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B152" t="n">
         <v>122900</v>
@@ -4706,12 +5171,15 @@
         <v>163533</v>
       </c>
       <c r="F152" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G152" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B153" t="n">
         <v>99235</v>
@@ -4726,12 +5194,15 @@
         <v>102467</v>
       </c>
       <c r="F153" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G153" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B154" t="n">
         <v>148128</v>
@@ -4746,12 +5217,15 @@
         <v>173469</v>
       </c>
       <c r="F154" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G154" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B155" t="n">
         <v>232055</v>
@@ -4766,12 +5240,15 @@
         <v>227338</v>
       </c>
       <c r="F155" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G155" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B156" t="n">
         <v>243524</v>
@@ -4786,12 +5263,15 @@
         <v>300626</v>
       </c>
       <c r="F156" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G156" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B157" t="n">
         <v>182651</v>
@@ -4806,12 +5286,15 @@
         <v>196601</v>
       </c>
       <c r="F157" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G157" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B158" t="n">
         <v>186444</v>
@@ -4826,12 +5309,15 @@
         <v>185726</v>
       </c>
       <c r="F158" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G158" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B159" t="n">
         <v>227928</v>
@@ -4846,12 +5332,15 @@
         <v>252807</v>
       </c>
       <c r="F159" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G159" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B160" t="n">
         <v>228151</v>
@@ -4866,12 +5355,15 @@
         <v>208973</v>
       </c>
       <c r="F160" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G160" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B161" t="n">
         <v>264030</v>
@@ -4886,12 +5378,15 @@
         <v>251459</v>
       </c>
       <c r="F161" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G161" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B162" t="n">
         <v>198896</v>
@@ -4906,12 +5401,15 @@
         <v>171179</v>
       </c>
       <c r="F162" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G162" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B163" t="n">
         <v>276548</v>
@@ -4926,12 +5424,15 @@
         <v>266176</v>
       </c>
       <c r="F163" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G163" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B164" t="n">
         <v>264268</v>
@@ -4946,12 +5447,15 @@
         <v>282513</v>
       </c>
       <c r="F164" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G164" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B165" t="n">
         <v>223495</v>
@@ -4966,12 +5470,15 @@
         <v>316884</v>
       </c>
       <c r="F165" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G165" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B166" t="n">
         <v>215938</v>
@@ -4986,12 +5493,15 @@
         <v>231052</v>
       </c>
       <c r="F166" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G166" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B167" t="n">
         <v>183739</v>
@@ -5006,12 +5516,15 @@
         <v>218829</v>
       </c>
       <c r="F167" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G167" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B168" t="n">
         <v>235087</v>
@@ -5026,12 +5539,15 @@
         <v>240358</v>
       </c>
       <c r="F168" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G168" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B169" t="n">
         <v>227013</v>
@@ -5046,12 +5562,15 @@
         <v>205677</v>
       </c>
       <c r="F169" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G169" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B170" t="n">
         <v>235282</v>
@@ -5066,12 +5585,15 @@
         <v>246314</v>
       </c>
       <c r="F170" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G170" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B171" t="n">
         <v>251681</v>
@@ -5086,12 +5608,15 @@
         <v>226559</v>
       </c>
       <c r="F171" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G171" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B172" t="n">
         <v>181767</v>
@@ -5106,12 +5631,15 @@
         <v>201927</v>
       </c>
       <c r="F172" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G172" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B173" t="n">
         <v>163675</v>
@@ -5126,12 +5654,15 @@
         <v>153224</v>
       </c>
       <c r="F173" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G173" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B174" t="n">
         <v>234228</v>
@@ -5146,12 +5677,15 @@
         <v>222228</v>
       </c>
       <c r="F174" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G174" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B175" t="n">
         <v>196286</v>
@@ -5166,12 +5700,15 @@
         <v>166750</v>
       </c>
       <c r="F175" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G175" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B176" t="n">
         <v>204737</v>
@@ -5186,12 +5723,15 @@
         <v>230317</v>
       </c>
       <c r="F176" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G176" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B177" t="n">
         <v>255591</v>
@@ -5206,12 +5746,15 @@
         <v>235270</v>
       </c>
       <c r="F177" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G177" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B178" t="n">
         <v>252067</v>
@@ -5226,12 +5769,15 @@
         <v>257992</v>
       </c>
       <c r="F178" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G178" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B179" t="n">
         <v>273910</v>
@@ -5246,12 +5792,15 @@
         <v>291700</v>
       </c>
       <c r="F179" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G179" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B180" t="n">
         <v>155299</v>
@@ -5266,12 +5815,15 @@
         <v>160473</v>
       </c>
       <c r="F180" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G180" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B181" t="n">
         <v>285045</v>
@@ -5286,12 +5838,15 @@
         <v>253218</v>
       </c>
       <c r="F181" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G181" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B182" t="n">
         <v>141983</v>
@@ -5306,12 +5861,15 @@
         <v>161523</v>
       </c>
       <c r="F182" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G182" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B183" t="n">
         <v>188826</v>
@@ -5326,12 +5884,15 @@
         <v>172531</v>
       </c>
       <c r="F183" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G183" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B184" t="n">
         <v>152807</v>
@@ -5346,12 +5907,15 @@
         <v>153835</v>
       </c>
       <c r="F184" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G184" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B185" t="n">
         <v>192596</v>
@@ -5366,12 +5930,15 @@
         <v>216412</v>
       </c>
       <c r="F185" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G185" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B186" t="n">
         <v>277649</v>
@@ -5386,12 +5953,15 @@
         <v>253309</v>
       </c>
       <c r="F186" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G186" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B187" t="n">
         <v>234877</v>
@@ -5406,12 +5976,15 @@
         <v>239169</v>
       </c>
       <c r="F187" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G187" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B188" t="n">
         <v>274757</v>
@@ -5426,12 +5999,15 @@
         <v>289227</v>
       </c>
       <c r="F188" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G188" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B189" t="n">
         <v>249436</v>
@@ -5446,12 +6022,15 @@
         <v>225045</v>
       </c>
       <c r="F189" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G189" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B190" t="n">
         <v>258618</v>
@@ -5466,12 +6045,15 @@
         <v>237908</v>
       </c>
       <c r="F190" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G190" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B191" t="n">
         <v>245865</v>
@@ -5486,12 +6068,15 @@
         <v>265654</v>
       </c>
       <c r="F191" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G191" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B192" t="n">
         <v>233067</v>
@@ -5506,12 +6091,15 @@
         <v>194753</v>
       </c>
       <c r="F192" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G192" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B193" t="n">
         <v>206647</v>
@@ -5526,12 +6114,15 @@
         <v>246750</v>
       </c>
       <c r="F193" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G193" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B194" t="n">
         <v>268403</v>
@@ -5546,12 +6137,15 @@
         <v>245692</v>
       </c>
       <c r="F194" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G194" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B195" t="n">
         <v>239759</v>
@@ -5566,12 +6160,15 @@
         <v>264089</v>
       </c>
       <c r="F195" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G195" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B196" t="n">
         <v>251152</v>
@@ -5586,12 +6183,15 @@
         <v>215321</v>
       </c>
       <c r="F196" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G196" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B197" t="n">
         <v>274735</v>
@@ -5606,12 +6206,15 @@
         <v>271127</v>
       </c>
       <c r="F197" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G197" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B198" t="n">
         <v>172261</v>
@@ -5626,12 +6229,15 @@
         <v>207164</v>
       </c>
       <c r="F198" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G198" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B199" t="n">
         <v>151017</v>
@@ -5646,12 +6252,15 @@
         <v>165924</v>
       </c>
       <c r="F199" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G199" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B200" t="n">
         <v>277390</v>
@@ -5666,12 +6275,15 @@
         <v>274474</v>
       </c>
       <c r="F200" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G200" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B201" t="n">
         <v>187182</v>
@@ -5686,12 +6298,15 @@
         <v>224673</v>
       </c>
       <c r="F201" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G201" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B202" t="n">
         <v>156890</v>
@@ -5706,12 +6321,15 @@
         <v>166701</v>
       </c>
       <c r="F202" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G202" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B203" t="n">
         <v>222618</v>
@@ -5726,12 +6344,15 @@
         <v>242852</v>
       </c>
       <c r="F203" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G203" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B204" t="n">
         <v>184514</v>
@@ -5746,12 +6367,15 @@
         <v>198401</v>
       </c>
       <c r="F204" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G204" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B205" t="n">
         <v>229014</v>
@@ -5766,12 +6390,15 @@
         <v>298119</v>
       </c>
       <c r="F205" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G205" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B206" t="n">
         <v>263496</v>
@@ -5786,12 +6413,15 @@
         <v>232575</v>
       </c>
       <c r="F206" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G206" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B207" t="n">
         <v>259347</v>
@@ -5806,12 +6436,15 @@
         <v>227621</v>
       </c>
       <c r="F207" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G207" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B208" t="n">
         <v>295437</v>
@@ -5826,12 +6459,15 @@
         <v>279446</v>
       </c>
       <c r="F208" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G208" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B209" t="n">
         <v>156435</v>
@@ -5846,12 +6482,15 @@
         <v>179581</v>
       </c>
       <c r="F209" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G209" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B210" t="n">
         <v>292287</v>
@@ -5866,12 +6505,15 @@
         <v>292407</v>
       </c>
       <c r="F210" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G210" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B211" t="n">
         <v>161470</v>
@@ -5886,12 +6528,15 @@
         <v>173053</v>
       </c>
       <c r="F211" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G211" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B212" t="n">
         <v>263916</v>
@@ -5906,12 +6551,15 @@
         <v>283982</v>
       </c>
       <c r="F212" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G212" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B213" t="n">
         <v>270211</v>
@@ -5926,12 +6574,15 @@
         <v>279711</v>
       </c>
       <c r="F213" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G213" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B214" t="n">
         <v>256276</v>
@@ -5946,12 +6597,15 @@
         <v>224048</v>
       </c>
       <c r="F214" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G214" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B215" t="n">
         <v>244714</v>
@@ -5966,12 +6620,15 @@
         <v>238808</v>
       </c>
       <c r="F215" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G215" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B216" t="n">
         <v>197373</v>
@@ -5986,12 +6643,15 @@
         <v>180726</v>
       </c>
       <c r="F216" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G216" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B217" t="n">
         <v>196219</v>
@@ -6006,12 +6666,15 @@
         <v>195465</v>
       </c>
       <c r="F217" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G217" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B218" t="n">
         <v>211528</v>
@@ -6026,12 +6689,15 @@
         <v>252829</v>
       </c>
       <c r="F218" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G218" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B219" t="n">
         <v>139234</v>
@@ -6046,12 +6712,15 @@
         <v>143937</v>
       </c>
       <c r="F219" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G219" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B220" t="n">
         <v>242518</v>
@@ -6066,12 +6735,15 @@
         <v>244478</v>
       </c>
       <c r="F220" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G220" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B221" t="n">
         <v>162462</v>
@@ -6086,12 +6758,15 @@
         <v>179598</v>
       </c>
       <c r="F221" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G221" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B222" t="n">
         <v>153486</v>
@@ -6106,12 +6781,15 @@
         <v>147610</v>
       </c>
       <c r="F222" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G222" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B223" t="n">
         <v>193103</v>
@@ -6126,12 +6804,15 @@
         <v>154116</v>
       </c>
       <c r="F223" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G223" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B224" t="n">
         <v>220199</v>
@@ -6146,12 +6827,15 @@
         <v>239093</v>
       </c>
       <c r="F224" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G224" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B225" t="n">
         <v>225694</v>
@@ -6166,12 +6850,15 @@
         <v>224210</v>
       </c>
       <c r="F225" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G225" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B226" t="n">
         <v>184223</v>
@@ -6186,12 +6873,15 @@
         <v>192926</v>
       </c>
       <c r="F226" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G226" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B227" t="n">
         <v>187534</v>
@@ -6206,12 +6896,15 @@
         <v>173211</v>
       </c>
       <c r="F227" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G227" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B228" t="n">
         <v>150866</v>
@@ -6226,12 +6919,15 @@
         <v>159965</v>
       </c>
       <c r="F228" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G228" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B229" t="n">
         <v>258636</v>
@@ -6246,12 +6942,15 @@
         <v>269201</v>
       </c>
       <c r="F229" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G229" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B230" t="n">
         <v>240060</v>
@@ -6266,12 +6965,15 @@
         <v>245925</v>
       </c>
       <c r="F230" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G230" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B231" t="n">
         <v>289701</v>
@@ -6286,12 +6988,15 @@
         <v>303971</v>
       </c>
       <c r="F231" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G231" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B232" t="n">
         <v>295431</v>
@@ -6306,12 +7011,15 @@
         <v>275520</v>
       </c>
       <c r="F232" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G232" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B233" t="n">
         <v>201253</v>
@@ -6326,12 +7034,15 @@
         <v>211713</v>
       </c>
       <c r="F233" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G233" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B234" t="n">
         <v>199098</v>
@@ -6346,12 +7057,15 @@
         <v>216034</v>
       </c>
       <c r="F234" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G234" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B235" t="n">
         <v>168918</v>
@@ -6366,12 +7080,15 @@
         <v>145683</v>
       </c>
       <c r="F235" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G235" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B236" t="n">
         <v>289872</v>
@@ -6386,12 +7103,15 @@
         <v>311019</v>
       </c>
       <c r="F236" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G236" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B237" t="n">
         <v>161688</v>
@@ -6406,12 +7126,15 @@
         <v>175079</v>
       </c>
       <c r="F237" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G237" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B238" t="n">
         <v>267900</v>
@@ -6426,12 +7149,15 @@
         <v>279813</v>
       </c>
       <c r="F238" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G238" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B239" t="n">
         <v>320679</v>
@@ -6446,12 +7172,15 @@
         <v>299384</v>
       </c>
       <c r="F239" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G239" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B240" t="n">
         <v>260503</v>
@@ -6466,12 +7195,15 @@
         <v>247391</v>
       </c>
       <c r="F240" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G240" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B241" t="n">
         <v>177828</v>
@@ -6486,12 +7218,15 @@
         <v>203578</v>
       </c>
       <c r="F241" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G241" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B242" t="n">
         <v>209127</v>
@@ -6506,12 +7241,15 @@
         <v>200094</v>
       </c>
       <c r="F242" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G242" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B243" t="n">
         <v>152376</v>
@@ -6526,12 +7264,15 @@
         <v>139663</v>
       </c>
       <c r="F243" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G243" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B244" t="n">
         <v>268860</v>
@@ -6546,12 +7287,15 @@
         <v>270606</v>
       </c>
       <c r="F244" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G244" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B245" t="n">
         <v>230999</v>
@@ -6566,12 +7310,15 @@
         <v>170521</v>
       </c>
       <c r="F245" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G245" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B246" t="n">
         <v>278556</v>
@@ -6586,12 +7333,15 @@
         <v>289271</v>
       </c>
       <c r="F246" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G246" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B247" t="n">
         <v>169857</v>
@@ -6606,12 +7356,15 @@
         <v>164635</v>
       </c>
       <c r="F247" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G247" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B248" t="n">
         <v>223487</v>
@@ -6626,12 +7379,15 @@
         <v>202983</v>
       </c>
       <c r="F248" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G248" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B249" t="n">
         <v>176405</v>
@@ -6646,12 +7402,15 @@
         <v>183535</v>
       </c>
       <c r="F249" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G249" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B250" t="n">
         <v>172790</v>
@@ -6666,12 +7425,15 @@
         <v>176447</v>
       </c>
       <c r="F250" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G250" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B251" t="n">
         <v>240772</v>
@@ -6686,12 +7448,15 @@
         <v>232167</v>
       </c>
       <c r="F251" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G251" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B252" t="n">
         <v>162842</v>
@@ -6706,12 +7471,15 @@
         <v>177139</v>
       </c>
       <c r="F252" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G252" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B253" t="n">
         <v>266432</v>
@@ -6726,12 +7494,15 @@
         <v>362108</v>
       </c>
       <c r="F253" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G253" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B254" t="n">
         <v>162383</v>
@@ -6746,12 +7517,15 @@
         <v>165395</v>
       </c>
       <c r="F254" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G254" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B255" t="n">
         <v>271048</v>
@@ -6766,12 +7540,15 @@
         <v>251317</v>
       </c>
       <c r="F255" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G255" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B256" t="n">
         <v>226054</v>
@@ -6786,12 +7563,15 @@
         <v>219713</v>
       </c>
       <c r="F256" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G256" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B257" t="n">
         <v>262027</v>
@@ -6806,12 +7586,15 @@
         <v>229590</v>
       </c>
       <c r="F257" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G257" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B258" t="n">
         <v>173067</v>
@@ -6826,12 +7609,15 @@
         <v>212321</v>
       </c>
       <c r="F258" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G258" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B259" t="n">
         <v>233574</v>
@@ -6846,12 +7632,15 @@
         <v>245731</v>
       </c>
       <c r="F259" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G259" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B260" t="n">
         <v>151211</v>
@@ -6866,12 +7655,15 @@
         <v>165082</v>
       </c>
       <c r="F260" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G260" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B261" t="n">
         <v>239703</v>
@@ -6886,12 +7678,15 @@
         <v>280562</v>
       </c>
       <c r="F261" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G261" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B262" t="n">
         <v>244063</v>
@@ -6906,12 +7701,15 @@
         <v>205137</v>
       </c>
       <c r="F262" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G262" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B263" t="n">
         <v>180856</v>
@@ -6926,12 +7724,15 @@
         <v>180172</v>
       </c>
       <c r="F263" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G263" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B264" t="n">
         <v>252593</v>
@@ -6946,12 +7747,15 @@
         <v>267444</v>
       </c>
       <c r="F264" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G264" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B265" t="n">
         <v>284111</v>
@@ -6966,12 +7770,15 @@
         <v>277885</v>
       </c>
       <c r="F265" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G265" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B266" t="n">
         <v>260641</v>
@@ -6986,12 +7793,15 @@
         <v>290268</v>
       </c>
       <c r="F266" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G266" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B267" t="n">
         <v>259018</v>
@@ -7006,12 +7816,15 @@
         <v>212895</v>
       </c>
       <c r="F267" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G267" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B268" t="n">
         <v>281609</v>
@@ -7026,12 +7839,15 @@
         <v>255101</v>
       </c>
       <c r="F268" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G268" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B269" t="n">
         <v>265700</v>
@@ -7046,12 +7862,15 @@
         <v>265760</v>
       </c>
       <c r="F269" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G269" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B270" t="n">
         <v>217221</v>
@@ -7066,12 +7885,15 @@
         <v>177608</v>
       </c>
       <c r="F270" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G270" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B271" t="n">
         <v>210520</v>
@@ -7086,12 +7908,15 @@
         <v>182535</v>
       </c>
       <c r="F271" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G271" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B272" t="n">
         <v>324473</v>
@@ -7106,12 +7931,15 @@
         <v>287210</v>
       </c>
       <c r="F272" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G272" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="B273" t="n">
         <v>199758</v>
@@ -7126,12 +7954,15 @@
         <v>234371</v>
       </c>
       <c r="F273" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G273" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B274" t="n">
         <v>183030</v>
@@ -7146,12 +7977,15 @@
         <v>194799</v>
       </c>
       <c r="F274" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G274" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B275" t="n">
         <v>186810</v>
@@ -7166,12 +8000,15 @@
         <v>202606</v>
       </c>
       <c r="F275" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G275" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B276" t="n">
         <v>178171</v>
@@ -7186,12 +8023,15 @@
         <v>169622</v>
       </c>
       <c r="F276" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G276" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B277" t="n">
         <v>150775</v>
@@ -7206,12 +8046,15 @@
         <v>149133</v>
       </c>
       <c r="F277" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G277" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B278" t="n">
         <v>242982</v>
@@ -7226,12 +8069,15 @@
         <v>214769</v>
       </c>
       <c r="F278" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G278" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B279" t="n">
         <v>192580</v>
@@ -7246,12 +8092,15 @@
         <v>170390</v>
       </c>
       <c r="F279" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G279" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B280" t="n">
         <v>147966</v>
@@ -7266,12 +8115,15 @@
         <v>175455</v>
       </c>
       <c r="F280" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G280" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B281" t="n">
         <v>135531</v>
@@ -7286,12 +8138,15 @@
         <v>157314</v>
       </c>
       <c r="F281" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G281" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B282" t="n">
         <v>250447</v>
@@ -7306,12 +8161,15 @@
         <v>294688</v>
       </c>
       <c r="F282" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G282" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B283" t="n">
         <v>163936</v>
@@ -7326,12 +8184,15 @@
         <v>172532</v>
       </c>
       <c r="F283" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G283" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B284" t="n">
         <v>164180</v>
@@ -7346,12 +8207,15 @@
         <v>155876</v>
       </c>
       <c r="F284" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G284" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B285" t="n">
         <v>262701</v>
@@ -7366,12 +8230,15 @@
         <v>231410</v>
       </c>
       <c r="F285" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G285" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B286" t="n">
         <v>211285</v>
@@ -7386,12 +8253,15 @@
         <v>230960</v>
       </c>
       <c r="F286" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G286" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B287" t="n">
         <v>244899</v>
@@ -7406,12 +8276,15 @@
         <v>267565</v>
       </c>
       <c r="F287" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G287" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B288" t="n">
         <v>171706</v>
@@ -7426,12 +8299,15 @@
         <v>209490</v>
       </c>
       <c r="F288" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G288" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B289" t="n">
         <v>207602</v>
@@ -7446,12 +8322,15 @@
         <v>252060</v>
       </c>
       <c r="F289" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G289" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B290" t="n">
         <v>294837</v>
@@ -7466,12 +8345,15 @@
         <v>284639</v>
       </c>
       <c r="F290" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G290" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B291" t="n">
         <v>251893</v>
@@ -7486,12 +8368,15 @@
         <v>239924</v>
       </c>
       <c r="F291" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G291" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B292" t="n">
         <v>97253</v>
@@ -7506,12 +8391,15 @@
         <v>119699</v>
       </c>
       <c r="F292" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G292" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="B293" t="n">
         <v>233872</v>
@@ -7526,12 +8414,15 @@
         <v>253214</v>
       </c>
       <c r="F293" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G293" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B294" t="n">
         <v>230763</v>
@@ -7546,12 +8437,15 @@
         <v>229843</v>
       </c>
       <c r="F294" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G294" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B295" t="n">
         <v>291620</v>
@@ -7566,12 +8460,15 @@
         <v>262177</v>
       </c>
       <c r="F295" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G295" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B296" t="n">
         <v>229828</v>
@@ -7586,12 +8483,15 @@
         <v>228270</v>
       </c>
       <c r="F296" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G296" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B297" t="n">
         <v>246117</v>
@@ -7606,12 +8506,15 @@
         <v>236033</v>
       </c>
       <c r="F297" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G297" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B298" t="n">
         <v>297162</v>
@@ -7626,12 +8529,15 @@
         <v>239817</v>
       </c>
       <c r="F298" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G298" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B299" t="n">
         <v>240235</v>
@@ -7646,12 +8552,15 @@
         <v>214229</v>
       </c>
       <c r="F299" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G299" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="B300" t="n">
         <v>177551</v>
@@ -7666,12 +8575,15 @@
         <v>208002</v>
       </c>
       <c r="F300" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G300" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B301" t="n">
         <v>171887</v>
@@ -7686,12 +8598,15 @@
         <v>228433</v>
       </c>
       <c r="F301" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G301" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B302" t="n">
         <v>209511</v>
@@ -7706,12 +8621,15 @@
         <v>241358</v>
       </c>
       <c r="F302" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G302" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B303" t="n">
         <v>289702</v>
@@ -7726,12 +8644,15 @@
         <v>270705</v>
       </c>
       <c r="F303" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G303" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B304" t="n">
         <v>175762</v>
@@ -7746,12 +8667,15 @@
         <v>190451</v>
       </c>
       <c r="F304" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G304" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="B305" t="n">
         <v>310548</v>
@@ -7766,12 +8690,15 @@
         <v>284247</v>
       </c>
       <c r="F305" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G305" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B306" t="n">
         <v>226920</v>
@@ -7786,12 +8713,15 @@
         <v>208832</v>
       </c>
       <c r="F306" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G306" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B307" t="n">
         <v>199196</v>
@@ -7806,12 +8736,15 @@
         <v>119873</v>
       </c>
       <c r="F307" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G307" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B308" t="n">
         <v>175888</v>
@@ -7826,12 +8759,15 @@
         <v>210488</v>
       </c>
       <c r="F308" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G308" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B309" t="n">
         <v>292277</v>
@@ -7846,12 +8782,15 @@
         <v>322471</v>
       </c>
       <c r="F309" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G309" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B310" t="n">
         <v>239334</v>
@@ -7866,12 +8805,15 @@
         <v>261051</v>
       </c>
       <c r="F310" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G310" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B311" t="n">
         <v>305163</v>
@@ -7886,12 +8828,15 @@
         <v>253200</v>
       </c>
       <c r="F311" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G311" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B312" t="n">
         <v>260535</v>
@@ -7906,12 +8851,15 @@
         <v>262942</v>
       </c>
       <c r="F312" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G312" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B313" t="n">
         <v>203156</v>
@@ -7926,12 +8874,15 @@
         <v>214937</v>
       </c>
       <c r="F313" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G313" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B314" t="n">
         <v>272572</v>
@@ -7946,12 +8897,15 @@
         <v>248551</v>
       </c>
       <c r="F314" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G314" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B315" t="n">
         <v>227989</v>
@@ -7966,12 +8920,15 @@
         <v>247391</v>
       </c>
       <c r="F315" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G315" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B316" t="n">
         <v>249966</v>
@@ -7986,12 +8943,15 @@
         <v>280730</v>
       </c>
       <c r="F316" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G316" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B317" t="n">
         <v>134638</v>
@@ -8006,12 +8966,15 @@
         <v>152141</v>
       </c>
       <c r="F317" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G317" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B318" t="n">
         <v>233571</v>
@@ -8026,12 +8989,15 @@
         <v>233631</v>
       </c>
       <c r="F318" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G318" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B319" t="n">
         <v>109356</v>
@@ -8046,12 +9012,15 @@
         <v>114441</v>
       </c>
       <c r="F319" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G319" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B320" t="n">
         <v>155362</v>
@@ -8066,12 +9035,15 @@
         <v>158098</v>
       </c>
       <c r="F320" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G320" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B321" t="n">
         <v>152748</v>
@@ -8086,12 +9058,15 @@
         <v>148624</v>
       </c>
       <c r="F321" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G321" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B322" t="n">
         <v>140961</v>
@@ -8106,12 +9081,15 @@
         <v>144813</v>
       </c>
       <c r="F322" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G322" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B323" t="n">
         <v>201469</v>
@@ -8126,12 +9104,15 @@
         <v>281997</v>
       </c>
       <c r="F323" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G323" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B324" t="n">
         <v>255028</v>
@@ -8146,12 +9127,15 @@
         <v>264204</v>
       </c>
       <c r="F324" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G324" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B325" t="n">
         <v>260087</v>
@@ -8166,12 +9150,15 @@
         <v>255412</v>
       </c>
       <c r="F325" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G325" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B326" t="n">
         <v>164198</v>
@@ -8186,12 +9173,15 @@
         <v>152951</v>
       </c>
       <c r="F326" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G326" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B327" t="n">
         <v>183498</v>
@@ -8206,12 +9196,15 @@
         <v>189325</v>
       </c>
       <c r="F327" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G327" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B328" t="n">
         <v>155640</v>
@@ -8226,12 +9219,15 @@
         <v>168773</v>
       </c>
       <c r="F328" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G328" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B329" t="n">
         <v>150397</v>
@@ -8246,12 +9242,15 @@
         <v>175035</v>
       </c>
       <c r="F329" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G329" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B330" t="n">
         <v>167793</v>
@@ -8266,12 +9265,15 @@
         <v>203779</v>
       </c>
       <c r="F330" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G330" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="B331" t="n">
         <v>239094</v>
@@ -8286,12 +9288,15 @@
         <v>250169</v>
       </c>
       <c r="F331" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G331" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B332" t="n">
         <v>172709</v>
@@ -8306,12 +9311,15 @@
         <v>186638</v>
       </c>
       <c r="F332" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G332" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B333" t="n">
         <v>248436</v>
@@ -8326,12 +9334,15 @@
         <v>219171</v>
       </c>
       <c r="F333" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G333" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B334" t="n">
         <v>214066</v>
@@ -8346,12 +9357,15 @@
         <v>245662</v>
       </c>
       <c r="F334" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G334" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B335" t="n">
         <v>141865</v>
@@ -8366,12 +9380,15 @@
         <v>155528</v>
       </c>
       <c r="F335" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G335" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="B336" t="n">
         <v>145779</v>
@@ -8386,12 +9403,15 @@
         <v>149726</v>
       </c>
       <c r="F336" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G336" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B337" t="n">
         <v>253621</v>
@@ -8406,12 +9426,15 @@
         <v>259124</v>
       </c>
       <c r="F337" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G337" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="B338" t="n">
         <v>142142</v>
@@ -8426,12 +9449,15 @@
         <v>170920</v>
       </c>
       <c r="F338" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G338" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B339" t="n">
         <v>168850</v>
@@ -8446,12 +9472,15 @@
         <v>168240</v>
       </c>
       <c r="F339" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G339" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B340" t="n">
         <v>192889</v>
@@ -8466,12 +9495,15 @@
         <v>230907</v>
       </c>
       <c r="F340" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G340" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B341" t="n">
         <v>148999</v>
@@ -8486,12 +9518,15 @@
         <v>166123</v>
       </c>
       <c r="F341" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G341" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B342" t="n">
         <v>213799</v>
@@ -8506,12 +9541,15 @@
         <v>239050</v>
       </c>
       <c r="F342" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G342" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="B343" t="n">
         <v>128238</v>
@@ -8526,12 +9564,15 @@
         <v>127395</v>
       </c>
       <c r="F343" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G343" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B344" t="n">
         <v>175453</v>
@@ -8546,12 +9587,15 @@
         <v>180524</v>
       </c>
       <c r="F344" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G344" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B345" t="n">
         <v>189274</v>
@@ -8566,12 +9610,15 @@
         <v>239639</v>
       </c>
       <c r="F345" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G345" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="B346" t="n">
         <v>193402</v>
@@ -8586,12 +9633,15 @@
         <v>205093</v>
       </c>
       <c r="F346" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G346" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B347" t="n">
         <v>182300</v>
@@ -8606,12 +9656,15 @@
         <v>258452</v>
       </c>
       <c r="F347" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G347" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B348" t="n">
         <v>233581</v>
@@ -8626,12 +9679,15 @@
         <v>199709</v>
       </c>
       <c r="F348" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G348" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B349" t="n">
         <v>233070</v>
@@ -8646,12 +9702,15 @@
         <v>220159</v>
       </c>
       <c r="F349" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G349" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="B350" t="n">
         <v>153226</v>
@@ -8666,12 +9725,15 @@
         <v>152621</v>
       </c>
       <c r="F350" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G350" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="B351" t="n">
         <v>220247</v>
@@ -8686,12 +9748,15 @@
         <v>255557</v>
       </c>
       <c r="F351" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G351" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="B352" t="n">
         <v>191486</v>
@@ -8706,12 +9771,15 @@
         <v>180481</v>
       </c>
       <c r="F352" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G352" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B353" t="n">
         <v>270872</v>
@@ -8726,12 +9794,15 @@
         <v>257552</v>
       </c>
       <c r="F353" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G353" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B354" t="n">
         <v>223348</v>
@@ -8746,12 +9817,15 @@
         <v>192529</v>
       </c>
       <c r="F354" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G354" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="B355" t="n">
         <v>203525</v>
@@ -8766,12 +9840,15 @@
         <v>229029</v>
       </c>
       <c r="F355" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G355" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="B356" t="n">
         <v>231622</v>
@@ -8786,12 +9863,15 @@
         <v>234606</v>
       </c>
       <c r="F356" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G356" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="B357" t="n">
         <v>153682</v>
@@ -8806,12 +9886,15 @@
         <v>168523</v>
       </c>
       <c r="F357" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G357" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B358" t="n">
         <v>274622</v>
@@ -8826,12 +9909,15 @@
         <v>261109</v>
       </c>
       <c r="F358" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G358" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="B359" t="n">
         <v>265512</v>
@@ -8846,12 +9932,15 @@
         <v>267944</v>
       </c>
       <c r="F359" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G359" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B360" t="n">
         <v>218292</v>
@@ -8866,12 +9955,15 @@
         <v>218828</v>
       </c>
       <c r="F360" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G360" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="B361" t="n">
         <v>146334</v>
@@ -8886,12 +9978,15 @@
         <v>201829</v>
       </c>
       <c r="F361" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G361" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="B362" t="n">
         <v>262683</v>
@@ -8906,12 +10001,15 @@
         <v>303258</v>
       </c>
       <c r="F362" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G362" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="B363" t="n">
         <v>176325</v>
@@ -8926,12 +10024,15 @@
         <v>166045</v>
       </c>
       <c r="F363" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G363" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="B364" t="n">
         <v>207291</v>
@@ -8946,12 +10047,15 @@
         <v>219027</v>
       </c>
       <c r="F364" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G364" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="B365" t="n">
         <v>177065</v>
@@ -8966,12 +10070,15 @@
         <v>217311</v>
       </c>
       <c r="F365" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G365" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B366" t="n">
         <v>137449</v>
@@ -8986,12 +10093,15 @@
         <v>163155</v>
       </c>
       <c r="F366" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G366" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="B367" t="n">
         <v>257109</v>
@@ -9006,12 +10116,15 @@
         <v>264837</v>
       </c>
       <c r="F367" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G367" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="B368" t="n">
         <v>213867</v>
@@ -9026,12 +10139,15 @@
         <v>206931</v>
       </c>
       <c r="F368" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G368" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="B369" t="n">
         <v>241677</v>
@@ -9046,12 +10162,15 @@
         <v>230294</v>
       </c>
       <c r="F369" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G369" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="B370" t="n">
         <v>225168</v>
@@ -9066,12 +10185,15 @@
         <v>193318</v>
       </c>
       <c r="F370" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G370" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="B371" t="n">
         <v>209366</v>
@@ -9086,12 +10208,15 @@
         <v>256707</v>
       </c>
       <c r="F371" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G371" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="B372" t="n">
         <v>202403</v>
@@ -9106,12 +10231,15 @@
         <v>191781</v>
       </c>
       <c r="F372" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G372" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="B373" t="n">
         <v>178042</v>
@@ -9126,12 +10254,15 @@
         <v>213273</v>
       </c>
       <c r="F373" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G373" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="B374" t="n">
         <v>152115</v>
@@ -9146,12 +10277,15 @@
         <v>176161</v>
       </c>
       <c r="F374" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G374" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="B375" t="n">
         <v>259313</v>
@@ -9166,12 +10300,15 @@
         <v>275353</v>
       </c>
       <c r="F375" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G375" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="B376" t="n">
         <v>143312</v>
@@ -9186,12 +10323,15 @@
         <v>159477</v>
       </c>
       <c r="F376" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G376" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="B377" t="n">
         <v>206115</v>
@@ -9206,12 +10346,15 @@
         <v>212384</v>
       </c>
       <c r="F377" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G377" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="B378" t="n">
         <v>206190</v>
@@ -9226,12 +10369,15 @@
         <v>272135</v>
       </c>
       <c r="F378" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G378" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="B379" t="n">
         <v>158048</v>
@@ -9246,12 +10392,15 @@
         <v>169489</v>
       </c>
       <c r="F379" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G379" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="B380" t="n">
         <v>278059</v>
@@ -9266,12 +10415,15 @@
         <v>240623</v>
       </c>
       <c r="F380" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G380" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="B381" t="n">
         <v>225939</v>
@@ -9286,12 +10438,15 @@
         <v>242766</v>
       </c>
       <c r="F381" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G381" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="B382" t="n">
         <v>172749</v>
@@ -9306,12 +10461,15 @@
         <v>175097</v>
       </c>
       <c r="F382" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G382" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="B383" t="n">
         <v>224886</v>
@@ -9326,12 +10484,15 @@
         <v>232025</v>
       </c>
       <c r="F383" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G383" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="B384" t="n">
         <v>219292</v>
@@ -9346,12 +10507,15 @@
         <v>224419</v>
       </c>
       <c r="F384" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G384" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B385" t="n">
         <v>214709</v>
@@ -9366,12 +10530,15 @@
         <v>254159</v>
       </c>
       <c r="F385" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G385" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="B386" t="n">
         <v>221405</v>
@@ -9386,12 +10553,15 @@
         <v>258200</v>
       </c>
       <c r="F386" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G386" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="B387" t="n">
         <v>215257</v>
@@ -9406,12 +10576,15 @@
         <v>188052</v>
       </c>
       <c r="F387" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G387" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="B388" t="n">
         <v>207124</v>
@@ -9426,12 +10599,15 @@
         <v>202000</v>
       </c>
       <c r="F388" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G388" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="B389" t="n">
         <v>190692</v>
@@ -9446,12 +10622,15 @@
         <v>205171</v>
       </c>
       <c r="F389" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G389" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="B390" t="n">
         <v>182077</v>
@@ -9466,12 +10645,15 @@
         <v>206197</v>
       </c>
       <c r="F390" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G390" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B391" t="n">
         <v>245820</v>
@@ -9486,12 +10668,15 @@
         <v>281958</v>
       </c>
       <c r="F391" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G391" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B392" t="n">
         <v>221010</v>
@@ -9506,12 +10691,15 @@
         <v>253036</v>
       </c>
       <c r="F392" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G392" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B393" t="n">
         <v>183584</v>
@@ -9526,12 +10714,15 @@
         <v>209836</v>
       </c>
       <c r="F393" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G393" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="B394" t="n">
         <v>257754</v>
@@ -9546,12 +10737,15 @@
         <v>226654</v>
       </c>
       <c r="F394" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G394" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="B395" t="n">
         <v>223599</v>
@@ -9566,12 +10760,15 @@
         <v>196214</v>
       </c>
       <c r="F395" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G395" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="B396" t="n">
         <v>249119</v>
@@ -9586,12 +10783,15 @@
         <v>265392</v>
       </c>
       <c r="F396" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G396" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B397" t="n">
         <v>241979</v>
@@ -9606,12 +10806,15 @@
         <v>208319</v>
       </c>
       <c r="F397" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G397" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B398" t="n">
         <v>130544</v>
@@ -9626,12 +10829,15 @@
         <v>149965</v>
       </c>
       <c r="F398" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G398" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="B399" t="n">
         <v>142447</v>
@@ -9646,12 +10852,15 @@
         <v>154281</v>
       </c>
       <c r="F399" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G399" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="B400" t="n">
         <v>179822</v>
@@ -9666,12 +10875,15 @@
         <v>182700</v>
       </c>
       <c r="F400" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G400" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="B401" t="n">
         <v>211123</v>
@@ -9686,12 +10898,15 @@
         <v>220764</v>
       </c>
       <c r="F401" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G401" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="B402" t="n">
         <v>210910</v>
@@ -9706,12 +10921,15 @@
         <v>216375</v>
       </c>
       <c r="F402" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G402" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B403" t="n">
         <v>192649</v>
@@ -9726,12 +10944,15 @@
         <v>192926</v>
       </c>
       <c r="F403" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G403" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="B404" t="n">
         <v>187246</v>
@@ -9746,12 +10967,15 @@
         <v>179048</v>
       </c>
       <c r="F404" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G404" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B405" t="n">
         <v>238824</v>
@@ -9766,12 +10990,15 @@
         <v>256133</v>
       </c>
       <c r="F405" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G405" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="B406" t="n">
         <v>200962</v>
@@ -9786,12 +11013,15 @@
         <v>271323</v>
       </c>
       <c r="F406" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G406" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="B407" t="n">
         <v>191675</v>
@@ -9806,12 +11036,15 @@
         <v>243466</v>
       </c>
       <c r="F407" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G407" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="B408" t="n">
         <v>105828</v>
@@ -9826,12 +11059,15 @@
         <v>126930</v>
       </c>
       <c r="F408" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G408" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B409" t="n">
         <v>159691</v>
@@ -9846,12 +11082,15 @@
         <v>167223</v>
       </c>
       <c r="F409" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G409" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="B410" t="n">
         <v>158398</v>
@@ -9866,12 +11105,15 @@
         <v>196554</v>
       </c>
       <c r="F410" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G410" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="B411" t="n">
         <v>241605</v>
@@ -9886,12 +11128,15 @@
         <v>206024</v>
       </c>
       <c r="F411" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G411" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="B412" t="n">
         <v>191051</v>
@@ -9906,12 +11151,15 @@
         <v>214709</v>
       </c>
       <c r="F412" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G412" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="B413" t="n">
         <v>198764</v>
@@ -9926,12 +11174,15 @@
         <v>162642</v>
       </c>
       <c r="F413" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G413" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="B414" t="n">
         <v>138908</v>
@@ -9946,12 +11197,15 @@
         <v>138617</v>
       </c>
       <c r="F414" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G414" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="B415" t="n">
         <v>213869</v>
@@ -9966,12 +11220,15 @@
         <v>266516</v>
       </c>
       <c r="F415" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G415" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="B416" t="n">
         <v>217028</v>
@@ -9986,12 +11243,15 @@
         <v>226317</v>
       </c>
       <c r="F416" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G416" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="B417" t="n">
         <v>165521</v>
@@ -10006,12 +11266,15 @@
         <v>183420</v>
       </c>
       <c r="F417" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G417" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="B418" t="n">
         <v>214109</v>
@@ -10026,12 +11289,15 @@
         <v>215459</v>
       </c>
       <c r="F418" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G418" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="B419" t="n">
         <v>189479</v>
@@ -10046,12 +11312,15 @@
         <v>182277</v>
       </c>
       <c r="F419" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G419" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="B420" t="n">
         <v>200618</v>
@@ -10066,12 +11335,15 @@
         <v>199855</v>
       </c>
       <c r="F420" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G420" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="B421" t="n">
         <v>144046</v>
@@ -10086,12 +11358,15 @@
         <v>157107</v>
       </c>
       <c r="F421" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G421" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="B422" t="n">
         <v>289246</v>
@@ -10106,12 +11381,15 @@
         <v>285966</v>
       </c>
       <c r="F422" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G422" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="B423" t="n">
         <v>263836</v>
@@ -10126,12 +11404,15 @@
         <v>238179</v>
       </c>
       <c r="F423" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G423" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="B424" t="n">
         <v>213882</v>
@@ -10146,12 +11427,15 @@
         <v>247657</v>
       </c>
       <c r="F424" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G424" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="B425" t="n">
         <v>205762</v>
@@ -10166,12 +11450,15 @@
         <v>209071</v>
       </c>
       <c r="F425" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G425" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="B426" t="n">
         <v>160764</v>
@@ -10186,12 +11473,15 @@
         <v>172640</v>
       </c>
       <c r="F426" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G426" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="B427" t="n">
         <v>192782</v>
@@ -10206,12 +11496,15 @@
         <v>216225</v>
       </c>
       <c r="F427" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G427" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="B428" t="n">
         <v>190324</v>
@@ -10226,12 +11519,15 @@
         <v>180870</v>
       </c>
       <c r="F428" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G428" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="B429" t="n">
         <v>223284</v>
@@ -10246,12 +11542,15 @@
         <v>237031</v>
       </c>
       <c r="F429" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G429" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="B430" t="n">
         <v>238237</v>
@@ -10266,12 +11565,15 @@
         <v>272526</v>
       </c>
       <c r="F430" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G430" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="B431" t="n">
         <v>159415</v>
@@ -10286,12 +11588,15 @@
         <v>163074</v>
       </c>
       <c r="F431" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G431" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="B432" t="n">
         <v>220619</v>
@@ -10306,12 +11611,15 @@
         <v>224406</v>
       </c>
       <c r="F432" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G432" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="B433" t="n">
         <v>177454</v>
@@ -10326,12 +11634,15 @@
         <v>160575</v>
       </c>
       <c r="F433" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G433" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="B434" t="n">
         <v>148507</v>
@@ -10346,12 +11657,15 @@
         <v>140571</v>
       </c>
       <c r="F434" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G434" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="B435" t="n">
         <v>264387</v>
@@ -10366,7 +11680,10 @@
         <v>235746</v>
       </c>
       <c r="F435" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G435" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
